--- a/Symphony/NOVEMBER/18.11.2021/MC Bank Statement November-2021.xlsx
+++ b/Symphony/NOVEMBER/18.11.2021/MC Bank Statement November-2021.xlsx
@@ -9500,11 +9500,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9519,6 +9514,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9532,7 +9532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
@@ -11663,14 +11663,14 @@
         <v>291550</v>
       </c>
       <c r="C20" s="62">
-        <v>266590</v>
+        <v>288590</v>
       </c>
       <c r="D20" s="59">
         <v>1650</v>
       </c>
       <c r="E20" s="59">
         <f t="shared" ref="E20:E23" si="1">C20+D20</f>
-        <v>268240</v>
+        <v>290240</v>
       </c>
       <c r="F20" s="249"/>
       <c r="G20" s="269">
@@ -13001,7 +13001,7 @@
       </c>
       <c r="C33" s="295">
         <f>SUM(C5:C32)</f>
-        <v>6858970</v>
+        <v>6880970</v>
       </c>
       <c r="D33" s="294">
         <f>SUM(D5:D32)</f>
@@ -13009,11 +13009,11 @@
       </c>
       <c r="E33" s="294">
         <f>SUM(E5:E32)</f>
-        <v>6898090</v>
+        <v>6920090</v>
       </c>
       <c r="F33" s="294">
         <f>B33-E33</f>
-        <v>-101490</v>
+        <v>-123490</v>
       </c>
       <c r="G33" s="296"/>
       <c r="H33" s="152"/>
@@ -14775,10 +14775,10 @@
         <v>1711460131</v>
       </c>
       <c r="D49" s="227">
-        <v>218540</v>
+        <v>198540</v>
       </c>
       <c r="E49" s="191" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F49" s="145"/>
       <c r="G49" s="151"/>
@@ -15141,10 +15141,10 @@
         <v>1739791780</v>
       </c>
       <c r="D52" s="227">
-        <v>20280</v>
+        <v>18280</v>
       </c>
       <c r="E52" s="191" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F52" s="145"/>
       <c r="G52" s="151"/>
@@ -22562,7 +22562,7 @@
       <c r="C119" s="354"/>
       <c r="D119" s="230">
         <f>SUM(D37:D118)</f>
-        <v>2082431</v>
+        <v>2060431</v>
       </c>
       <c r="E119" s="222"/>
       <c r="F119" s="151"/>
@@ -22769,7 +22769,7 @@
       <c r="C121" s="342"/>
       <c r="D121" s="230">
         <f>D119+M121</f>
-        <v>2082431</v>
+        <v>2060431</v>
       </c>
       <c r="E121" s="222"/>
       <c r="F121" s="151"/>
@@ -34001,8 +34001,8 @@
   </sheetPr>
   <dimension ref="A1:AC219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34198,7 +34198,7 @@
         <v>78</v>
       </c>
       <c r="E7" s="274">
-        <v>54984.023495242</v>
+        <v>76984.023495242</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="301"/>
@@ -34299,7 +34299,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="273">
-        <v>2082431</v>
+        <v>2060431</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="258"/>

--- a/Symphony/NOVEMBER/18.11.2021/MC Bank Statement November-2021.xlsx
+++ b/Symphony/NOVEMBER/18.11.2021/MC Bank Statement November-2021.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="225">
   <si>
     <t>Date</t>
   </si>
@@ -774,9 +774,6 @@
     <t>17.11.2021</t>
   </si>
   <si>
-    <t>Date:17.11.2021</t>
-  </si>
-  <si>
     <t>Besi</t>
   </si>
   <si>
@@ -790,6 +787,12 @@
   </si>
   <si>
     <t>Satata Mobile</t>
+  </si>
+  <si>
+    <t>Date:18.11.2021</t>
+  </si>
+  <si>
+    <t>20.11.2021</t>
   </si>
 </sst>
 </file>
@@ -5030,8 +5033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5384,7 +5387,7 @@
         <v>754388</v>
       </c>
       <c r="F20" s="318" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="2"/>
@@ -5412,7 +5415,7 @@
         <v>1350</v>
       </c>
       <c r="H21" s="321" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5439,7 +5442,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="325"/>
       <c r="B23" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" s="287">
         <v>700000</v>
@@ -5457,9 +5460,15 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="325"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="287"/>
-      <c r="D24" s="287"/>
+      <c r="B24" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="287">
+        <v>0</v>
+      </c>
+      <c r="D24" s="287">
+        <v>0</v>
+      </c>
       <c r="E24" s="289">
         <f t="shared" si="0"/>
         <v>754388</v>
@@ -6233,7 +6242,7 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -7032,7 +7041,7 @@
     </row>
     <row r="21" spans="1:23" s="14" customFormat="1">
       <c r="A21" s="85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" s="93">
         <v>1000</v>
@@ -9500,6 +9509,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9513,12 +9528,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -11657,20 +11666,20 @@
     </row>
     <row r="20" spans="1:97">
       <c r="A20" s="196" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" s="59">
         <v>291550</v>
       </c>
       <c r="C20" s="62">
-        <v>288590</v>
+        <v>328590</v>
       </c>
       <c r="D20" s="59">
         <v>1650</v>
       </c>
       <c r="E20" s="59">
         <f t="shared" ref="E20:E23" si="1">C20+D20</f>
-        <v>290240</v>
+        <v>330240</v>
       </c>
       <c r="F20" s="249"/>
       <c r="G20" s="269">
@@ -13001,7 +13010,7 @@
       </c>
       <c r="C33" s="295">
         <f>SUM(C5:C32)</f>
-        <v>6880970</v>
+        <v>6920970</v>
       </c>
       <c r="D33" s="294">
         <f>SUM(D5:D32)</f>
@@ -13009,11 +13018,11 @@
       </c>
       <c r="E33" s="294">
         <f>SUM(E5:E32)</f>
-        <v>6920090</v>
+        <v>6960090</v>
       </c>
       <c r="F33" s="294">
         <f>B33-E33</f>
-        <v>-123490</v>
+        <v>-163490</v>
       </c>
       <c r="G33" s="296"/>
       <c r="H33" s="152"/>
@@ -14409,10 +14418,10 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="226">
-        <v>459940</v>
+        <v>419940</v>
       </c>
       <c r="E46" s="199" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F46" s="144"/>
       <c r="G46" s="151"/>
@@ -14778,7 +14787,7 @@
         <v>198540</v>
       </c>
       <c r="E49" s="191" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F49" s="145"/>
       <c r="G49" s="151"/>
@@ -15144,7 +15153,7 @@
         <v>18280</v>
       </c>
       <c r="E52" s="191" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F52" s="145"/>
       <c r="G52" s="151"/>
@@ -18966,17 +18975,17 @@
     </row>
     <row r="85" spans="1:97">
       <c r="A85" s="244" t="s">
+        <v>221</v>
+      </c>
+      <c r="B85" s="130" t="s">
         <v>222</v>
-      </c>
-      <c r="B85" s="130" t="s">
-        <v>223</v>
       </c>
       <c r="C85" s="129"/>
       <c r="D85" s="227">
         <v>23310</v>
       </c>
       <c r="E85" s="192" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F85" s="147"/>
       <c r="G85" s="151"/>
@@ -22562,7 +22571,7 @@
       <c r="C119" s="354"/>
       <c r="D119" s="230">
         <f>SUM(D37:D118)</f>
-        <v>2060431</v>
+        <v>2020431</v>
       </c>
       <c r="E119" s="222"/>
       <c r="F119" s="151"/>
@@ -22769,7 +22778,7 @@
       <c r="C121" s="342"/>
       <c r="D121" s="230">
         <f>D119+M121</f>
-        <v>2060431</v>
+        <v>2020431</v>
       </c>
       <c r="E121" s="222"/>
       <c r="F121" s="151"/>
@@ -34001,8 +34010,8 @@
   </sheetPr>
   <dimension ref="A1:AC219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34044,7 +34053,7 @@
     </row>
     <row r="3" spans="1:29" ht="23.25">
       <c r="A3" s="358" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B3" s="359"/>
       <c r="C3" s="359"/>
@@ -34122,7 +34131,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="273">
-        <v>4582783.8669857103</v>
+        <v>4580087.3069857098</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="298"/>
@@ -34154,7 +34163,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="278">
-        <v>177484.8904809524</v>
+        <v>177558.3304809524</v>
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="43" t="s">
@@ -34198,7 +34207,7 @@
         <v>78</v>
       </c>
       <c r="E7" s="274">
-        <v>76984.023495242</v>
+        <v>119754.02349524293</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="301"/>
@@ -34299,7 +34308,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="273">
-        <v>2060431</v>
+        <v>2020431</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="258"/>
@@ -34371,7 +34380,7 @@
       </c>
       <c r="B12" s="279">
         <f>B6+B7+B8-B10-B11</f>
-        <v>138334.8904809524</v>
+        <v>138408.3304809524</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="43" t="s">
@@ -34480,7 +34489,7 @@
       </c>
       <c r="B15" s="280">
         <f>B5+B6+B7+B8-B10-B11-B14</f>
-        <v>8138334.8904809523</v>
+        <v>8138408.3304809527</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="44" t="s">
@@ -34488,7 +34497,7 @@
       </c>
       <c r="E15" s="277">
         <f>E5+E6+E7+E10+E11+E12</f>
-        <v>8138334.8904809523</v>
+        <v>8138408.3304809527</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="123">
